--- a/DOSIS DE HIERRO PARA ANEMIA.xlsx
+++ b/DOSIS DE HIERRO PARA ANEMIA.xlsx
@@ -1,16 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PortalCarabaylloSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D167397D-41BD-4177-AED7-537989812531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
-    <sheet r:id="rId2" sheetId="2" name="Hoja2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,8 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,7 +79,7 @@
       <b/>
       <u/>
       <sz val="16"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -98,32 +113,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66ff66"/>
+        <fgColor rgb="FF66FF66"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99ff99"/>
+        <fgColor rgb="FF99FF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffcc66"/>
+        <fgColor rgb="FFFFCC66"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFccccff"/>
+        <fgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff99"/>
+        <fgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFff7c80"/>
+        <fgColor rgb="FFFF7C80"/>
       </patternFill>
     </fill>
   </fills>
@@ -140,7 +155,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -201,82 +216,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -287,10 +293,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -328,71 +334,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,7 +426,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -443,11 +449,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -456,13 +462,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -472,7 +478,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -481,7 +487,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -490,7 +496,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -498,10 +504,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -566,29 +572,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="20" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="21" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="4.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="21" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="22" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -600,21 +608,21 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="26.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -626,7 +634,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -635,60 +643,65 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60.75" customFormat="1" s="10">
-      <c r="A5" s="11" t="s">
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>11</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10">
         <f>(A6*2)</f>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12">
         <f>(C6*20/25)</f>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12">
         <f>(C6*5/15)</f>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12">
         <f>(E6*30/400)</f>
-      </c>
-      <c r="J6" s="18">
+        <v>1.32</v>
+      </c>
+      <c r="J6" s="12">
         <f>(G6*30/180)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -700,7 +713,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -712,21 +725,21 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="26.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -738,7 +751,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -747,60 +760,65 @@
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="60.75" customFormat="1" s="10">
-      <c r="A12" s="11" t="s">
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10">
         <f>(A13*3)</f>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12">
         <f>(C13*20/25)</f>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18">
+        <v>26.4</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12">
         <f>(C13*5/15)</f>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18">
+        <v>11</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12">
         <f>(E13*30/400)</f>
-      </c>
-      <c r="J13" s="18">
+        <v>1.98</v>
+      </c>
+      <c r="J13" s="12">
         <f>(G13*30/180)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -812,7 +830,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -824,7 +842,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
@@ -836,7 +854,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
@@ -848,7 +866,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
@@ -860,7 +878,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -872,7 +890,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
@@ -884,7 +902,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
@@ -896,7 +914,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -908,7 +926,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
@@ -920,7 +938,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
@@ -932,7 +950,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
@@ -944,7 +962,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
@@ -956,7 +974,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
@@ -968,7 +986,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -980,7 +998,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15.75">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -992,7 +1010,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
@@ -1004,7 +1022,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1016,7 +1034,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1028,7 +1046,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
@@ -1040,7 +1058,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
@@ -1052,7 +1070,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
@@ -1064,7 +1082,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
@@ -1076,7 +1094,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
@@ -1088,7 +1106,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
@@ -1100,7 +1118,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -1112,7 +1130,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -1124,7 +1142,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -1136,7 +1154,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -1148,7 +1166,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -1160,7 +1178,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -1172,7 +1190,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -1184,7 +1202,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -1196,7 +1214,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -1208,7 +1226,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -1220,7 +1238,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -1232,7 +1250,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -1244,7 +1262,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -1256,7 +1274,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -1268,7 +1286,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -1280,7 +1298,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -1292,7 +1310,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -1304,7 +1322,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -1316,7 +1334,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -1328,7 +1346,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -1340,7 +1358,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -1352,7 +1370,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -1364,7 +1382,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -1376,7 +1394,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -1388,7 +1406,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -1400,7 +1418,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -1412,7 +1430,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -1424,7 +1442,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -1436,7 +1454,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -1448,7 +1466,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15.75">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -1460,7 +1478,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15.75">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -1472,7 +1490,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15.75">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -1484,7 +1502,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="15.75">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -1496,7 +1514,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="15.75">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -1508,7 +1526,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="15.75">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -1520,7 +1538,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="15.75">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -1532,7 +1550,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15.75">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -1544,7 +1562,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="15.75">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -1556,7 +1574,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="15.75">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -1568,7 +1586,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="15.75">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -1580,7 +1598,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="15.75">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -1592,7 +1610,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="15.75">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -1604,7 +1622,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="15.75">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -1616,7 +1634,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="15.75">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -1628,7 +1646,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="15.75">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -1640,7 +1658,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="15.75">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -1652,7 +1670,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="15.75">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -1664,7 +1682,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="15.75">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -1676,7 +1694,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="15.75">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -1688,7 +1706,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="15.75">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -1700,7 +1718,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="15.75">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -1712,7 +1730,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="15.75">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -1724,7 +1742,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="15.75">
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -1736,7 +1754,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15.75">
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -1748,7 +1766,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15.75">
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -1760,7 +1778,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="15.75">
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -1772,7 +1790,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="15.75">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -1784,7 +1802,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="15.75">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -1796,7 +1814,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="15.75">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -1808,7 +1826,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="15.75">
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -1820,7 +1838,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="15.75">
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -1832,7 +1850,7 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="15.75">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -1856,7 +1874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1864,7 +1882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
